--- a/クリックポスト発送情報/20200814232142/英子日本发货表格8.14.xlsx
+++ b/クリックポスト発送情報/20200814232142/英子日本发货表格8.14.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
   <si>
     <t>序号</t>
   </si>
@@ -314,6 +314,63 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>628564900865</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>628564900854</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>628564900843</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>628564900832</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>628564900821</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>628564900810</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>628564900806</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>628564900795
+628564900784</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>628564900773</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>628564900762</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>628564900751</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>628564900740</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>628564900736</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>628564900725</t>
     <phoneticPr fontId="19"/>
   </si>
 </sst>
@@ -322,7 +379,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -495,7 +552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -607,12 +664,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -631,7 +691,7 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1750,7 +1810,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K19"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -2125,7 +2185,9 @@
       <c r="I2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="45"/>
+      <c r="K2" s="46" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
       <c r="A3" s="12" t="s">
@@ -2150,10 +2212,10 @@
       <c r="I3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="45"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="13"/>
@@ -2163,22 +2225,24 @@
       <c r="D4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="K4" s="46" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="5" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A5" s="40"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="13"/>
       <c r="C5" s="12" t="s">
         <v>31</v>
@@ -2186,14 +2250,16 @@
       <c r="D5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="K5" s="45"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="K5" s="46" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="6" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A6" s="40"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="13"/>
       <c r="C6" s="12" t="s">
         <v>12</v>
@@ -2201,11 +2267,13 @@
       <c r="D6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="K6" s="45"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="K6" s="46" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="7" spans="1:181" ht="121.95" customHeight="1">
       <c r="A7" s="18" t="s">
@@ -2230,7 +2298,9 @@
       <c r="I7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="45"/>
+      <c r="K7" s="46" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:181" ht="121.95" customHeight="1">
       <c r="A8" s="18" t="s">
@@ -2255,10 +2325,12 @@
       <c r="I8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="45"/>
+      <c r="K8" s="46" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="9" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="42" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="22"/>
@@ -2268,22 +2340,24 @@
       <c r="D9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="45"/>
+      <c r="K9" s="46" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="10" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="24"/>
       <c r="C10" s="15" t="s">
         <v>50</v>
@@ -2291,14 +2365,16 @@
       <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="K10" s="45"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="K10" s="46" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="11" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="42" t="s">
         <v>51</v>
       </c>
       <c r="B11" s="22"/>
@@ -2308,22 +2384,24 @@
       <c r="D11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="45"/>
+      <c r="K11" s="46" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="12" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A12" s="42"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23" t="s">
         <v>56</v>
@@ -2331,14 +2409,16 @@
       <c r="D12" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="K12" s="45"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="K12" s="46" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="13" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23" t="s">
         <v>31</v>
@@ -2346,14 +2426,16 @@
       <c r="D13" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="K13" s="45"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="K13" s="46" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="44" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="26"/>
@@ -2363,22 +2445,24 @@
       <c r="D14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="45"/>
+      <c r="K14" s="46" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="15" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A15" s="44"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="26"/>
       <c r="C15" s="27" t="s">
         <v>63</v>
@@ -2386,11 +2470,13 @@
       <c r="D15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="K15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="K15" s="46" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="16" spans="1:181" ht="121.95" customHeight="1">
       <c r="A16" s="28" t="s">
@@ -2415,7 +2501,7 @@
       <c r="I16" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="K16" s="45"/>
+      <c r="K16" s="39"/>
     </row>
     <row r="17" spans="1:11" ht="121.95" customHeight="1">
       <c r="A17" s="28" t="s">
@@ -2440,7 +2526,7 @@
       <c r="I17" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="45"/>
+      <c r="K17" s="39"/>
     </row>
     <row r="18" spans="1:11" ht="121.95" customHeight="1">
       <c r="A18" s="28" t="s">
@@ -2465,7 +2551,9 @@
       <c r="I18" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="45"/>
+      <c r="K18" s="46" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="121.95" customHeight="1">
       <c r="A19" s="31" t="s">
@@ -2490,7 +2578,7 @@
       <c r="I19" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="45"/>
+      <c r="K19" s="39"/>
     </row>
     <row r="20" spans="1:11" ht="121.95" customHeight="1"/>
     <row r="21" spans="1:11" ht="121.95" customHeight="1"/>
@@ -2732,6 +2820,14 @@
     <row r="257" ht="121.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="I11:I13"/>
@@ -2744,14 +2840,6 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <pageMargins left="0.70902777777777803" right="0.70902777777777803" top="0.95902777777777803" bottom="0.95902777777777803" header="0.468055555555556" footer="0.468055555555556"/>
